--- a/docs/svm.xlsx
+++ b/docs/svm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="uppaal_df__svm" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="17">
   <si>
     <t>svm_uppaal_C32_T1_rec100000000_df</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>memory_opt</t>
-  </si>
-  <si>
-    <t>max_memory_no_opt</t>
-  </si>
-  <si>
-    <t>max_memory_opt</t>
   </si>
 </sst>
 </file>
@@ -169,7 +163,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="948">
+  <dxfs count="666">
     <dxf>
       <fill>
         <patternFill>
@@ -1473,1190 +1467,230 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFBEBEBE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBEBEBE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBEBEBE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBEBEBE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4179,1447 +3213,151 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7903,8 +5641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8904,897 +6642,897 @@
     <mergeCell ref="A20:I20"/>
   </mergeCells>
   <conditionalFormatting sqref="A22:B37">
-    <cfRule type="cellIs" dxfId="947" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="331" operator="equal">
       <formula>"ERROR/TIMEOUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="332" operator="equal">
       <formula>"unsat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="945" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="333" operator="equal">
       <formula>"sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B17">
-    <cfRule type="cellIs" dxfId="944" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="25" operator="equal">
       <formula>"ERROR/TIMEOUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="26" operator="equal">
       <formula>"unsat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="27" operator="equal">
       <formula>"sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="941" priority="92">
+    <cfRule type="expression" dxfId="659" priority="116">
       <formula>F10&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="93">
+    <cfRule type="expression" dxfId="658" priority="117">
       <formula>AND(-3&lt;F10,F10&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="939" priority="94">
+    <cfRule type="expression" dxfId="657" priority="118">
       <formula>AND(-2&lt;F10,F10&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="938" priority="95">
+    <cfRule type="expression" dxfId="656" priority="119">
       <formula>AND(-1.5&lt;F10,F10&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="937" priority="96">
+    <cfRule type="expression" dxfId="655" priority="120">
       <formula>F11&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="97">
+    <cfRule type="expression" dxfId="654" priority="121">
       <formula>AND(-3&lt;F11,F11&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="935" priority="98">
+    <cfRule type="expression" dxfId="653" priority="122">
       <formula>AND(-2&lt;F11,F11&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="99">
+    <cfRule type="expression" dxfId="652" priority="123">
       <formula>AND(-1.5&lt;F11,F11&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="933" priority="100">
+    <cfRule type="expression" dxfId="651" priority="124">
       <formula>F12&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="101">
+    <cfRule type="expression" dxfId="650" priority="125">
       <formula>AND(-3&lt;F12,F12&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="102">
+    <cfRule type="expression" dxfId="649" priority="126">
       <formula>AND(-2&lt;F12,F12&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="103">
+    <cfRule type="expression" dxfId="648" priority="127">
       <formula>AND(-1.5&lt;F12,F12&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="929" priority="104">
+    <cfRule type="expression" dxfId="647" priority="128">
       <formula>F13&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="105">
+    <cfRule type="expression" dxfId="646" priority="129">
       <formula>AND(-3&lt;F13,F13&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="927" priority="106">
+    <cfRule type="expression" dxfId="645" priority="130">
       <formula>AND(-2&lt;F13,F13&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="107">
+    <cfRule type="expression" dxfId="644" priority="131">
       <formula>AND(-1.5&lt;F13,F13&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="925" priority="108">
+    <cfRule type="expression" dxfId="643" priority="132">
       <formula>F14&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="109">
+    <cfRule type="expression" dxfId="642" priority="133">
       <formula>AND(-3&lt;F14,F14&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="923" priority="110">
+    <cfRule type="expression" dxfId="641" priority="134">
       <formula>AND(-2&lt;F14,F14&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="111">
+    <cfRule type="expression" dxfId="640" priority="135">
       <formula>AND(-1.5&lt;F14,F14&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="921" priority="112">
+    <cfRule type="expression" dxfId="639" priority="136">
       <formula>F15&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="113">
+    <cfRule type="expression" dxfId="638" priority="137">
       <formula>AND(-3&lt;F15,F15&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="919" priority="114">
+    <cfRule type="expression" dxfId="637" priority="138">
       <formula>AND(-2&lt;F15,F15&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="115">
+    <cfRule type="expression" dxfId="636" priority="139">
       <formula>AND(-1.5&lt;F15,F15&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="917" priority="116">
+    <cfRule type="expression" dxfId="635" priority="140">
       <formula>F16&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="117">
+    <cfRule type="expression" dxfId="634" priority="141">
       <formula>AND(-3&lt;F16,F16&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="118">
+    <cfRule type="expression" dxfId="633" priority="142">
       <formula>AND(-2&lt;F16,F16&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="119">
+    <cfRule type="expression" dxfId="632" priority="143">
       <formula>AND(-1.5&lt;F16,F16&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="913" priority="120">
+    <cfRule type="expression" dxfId="631" priority="144">
       <formula>F17&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="121">
+    <cfRule type="expression" dxfId="630" priority="145">
       <formula>AND(-3&lt;F17,F17&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="911" priority="122">
+    <cfRule type="expression" dxfId="629" priority="146">
       <formula>AND(-2&lt;F17,F17&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="123">
+    <cfRule type="expression" dxfId="628" priority="147">
       <formula>AND(-1.5&lt;F17,F17&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="909" priority="374">
+    <cfRule type="expression" dxfId="627" priority="398">
       <formula>F22&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="375">
+    <cfRule type="expression" dxfId="626" priority="399">
       <formula>AND(-3&lt;F22,F22&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="376">
+    <cfRule type="expression" dxfId="625" priority="400">
       <formula>AND(-2&lt;F22,F22&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="377">
+    <cfRule type="expression" dxfId="624" priority="401">
       <formula>AND(-1.5&lt;F22,F22&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="905" priority="378">
+    <cfRule type="expression" dxfId="623" priority="402">
       <formula>F23&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="379">
+    <cfRule type="expression" dxfId="622" priority="403">
       <formula>AND(-3&lt;F23,F23&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="903" priority="380">
+    <cfRule type="expression" dxfId="621" priority="404">
       <formula>AND(-2&lt;F23,F23&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="381">
+    <cfRule type="expression" dxfId="620" priority="405">
       <formula>AND(-1.5&lt;F23,F23&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="901" priority="382">
+    <cfRule type="expression" dxfId="619" priority="406">
       <formula>F24&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="383">
+    <cfRule type="expression" dxfId="618" priority="407">
       <formula>AND(-3&lt;F24,F24&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="899" priority="384">
+    <cfRule type="expression" dxfId="617" priority="408">
       <formula>AND(-2&lt;F24,F24&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="385">
+    <cfRule type="expression" dxfId="616" priority="409">
       <formula>AND(-1.5&lt;F24,F24&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="897" priority="386">
+    <cfRule type="expression" dxfId="615" priority="410">
       <formula>F25&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="387">
+    <cfRule type="expression" dxfId="614" priority="411">
       <formula>AND(-3&lt;F25,F25&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="895" priority="388">
+    <cfRule type="expression" dxfId="613" priority="412">
       <formula>AND(-2&lt;F25,F25&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="389">
+    <cfRule type="expression" dxfId="612" priority="413">
       <formula>AND(-1.5&lt;F25,F25&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="893" priority="390">
+    <cfRule type="expression" dxfId="611" priority="414">
       <formula>F26&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="391">
+    <cfRule type="expression" dxfId="610" priority="415">
       <formula>AND(-3&lt;F26,F26&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="392">
+    <cfRule type="expression" dxfId="609" priority="416">
       <formula>AND(-2&lt;F26,F26&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="393">
+    <cfRule type="expression" dxfId="608" priority="417">
       <formula>AND(-1.5&lt;F26,F26&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="889" priority="394">
+    <cfRule type="expression" dxfId="607" priority="418">
       <formula>F27&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="395">
+    <cfRule type="expression" dxfId="606" priority="419">
       <formula>AND(-3&lt;F27,F27&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="887" priority="396">
+    <cfRule type="expression" dxfId="605" priority="420">
       <formula>AND(-2&lt;F27,F27&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="397">
+    <cfRule type="expression" dxfId="604" priority="421">
       <formula>AND(-1.5&lt;F27,F27&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="885" priority="398">
+    <cfRule type="expression" dxfId="603" priority="422">
       <formula>F28&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="399">
+    <cfRule type="expression" dxfId="602" priority="423">
       <formula>AND(-3&lt;F28,F28&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="400">
+    <cfRule type="expression" dxfId="601" priority="424">
       <formula>AND(-2&lt;F28,F28&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="401">
+    <cfRule type="expression" dxfId="600" priority="425">
       <formula>AND(-1.5&lt;F28,F28&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="881" priority="402">
+    <cfRule type="expression" dxfId="599" priority="426">
       <formula>F29&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="403">
+    <cfRule type="expression" dxfId="598" priority="427">
       <formula>AND(-3&lt;F29,F29&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="879" priority="404">
+    <cfRule type="expression" dxfId="597" priority="428">
       <formula>AND(-2&lt;F29,F29&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="405">
+    <cfRule type="expression" dxfId="596" priority="429">
       <formula>AND(-1.5&lt;F29,F29&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="877" priority="64">
+    <cfRule type="expression" dxfId="595" priority="88">
       <formula>F3&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="65">
+    <cfRule type="expression" dxfId="594" priority="89">
       <formula>AND(-3&lt;F3,F3&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="66">
+    <cfRule type="expression" dxfId="593" priority="90">
       <formula>AND(-2&lt;F3,F3&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="67">
+    <cfRule type="expression" dxfId="592" priority="91">
       <formula>AND(-1.5&lt;F3,F3&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="873" priority="406">
+    <cfRule type="expression" dxfId="591" priority="430">
       <formula>F30&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="407">
+    <cfRule type="expression" dxfId="590" priority="431">
       <formula>AND(-3&lt;F30,F30&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="871" priority="408">
+    <cfRule type="expression" dxfId="589" priority="432">
       <formula>AND(-2&lt;F30,F30&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="409">
+    <cfRule type="expression" dxfId="588" priority="433">
       <formula>AND(-1.5&lt;F30,F30&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="869" priority="410">
+    <cfRule type="expression" dxfId="587" priority="434">
       <formula>F31&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="411">
+    <cfRule type="expression" dxfId="586" priority="435">
       <formula>AND(-3&lt;F31,F31&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="412">
+    <cfRule type="expression" dxfId="585" priority="436">
       <formula>AND(-2&lt;F31,F31&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="413">
+    <cfRule type="expression" dxfId="584" priority="437">
       <formula>AND(-1.5&lt;F31,F31&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="865" priority="414">
+    <cfRule type="expression" dxfId="583" priority="438">
       <formula>F32&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="415">
+    <cfRule type="expression" dxfId="582" priority="439">
       <formula>AND(-3&lt;F32,F32&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="863" priority="416">
+    <cfRule type="expression" dxfId="581" priority="440">
       <formula>AND(-2&lt;F32,F32&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="417">
+    <cfRule type="expression" dxfId="580" priority="441">
       <formula>AND(-1.5&lt;F32,F32&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="861" priority="418">
+    <cfRule type="expression" dxfId="579" priority="442">
       <formula>F33&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="419">
+    <cfRule type="expression" dxfId="578" priority="443">
       <formula>AND(-3&lt;F33,F33&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="420">
+    <cfRule type="expression" dxfId="577" priority="444">
       <formula>AND(-2&lt;F33,F33&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="421">
+    <cfRule type="expression" dxfId="576" priority="445">
       <formula>AND(-1.5&lt;F33,F33&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="857" priority="422">
+    <cfRule type="expression" dxfId="575" priority="446">
       <formula>F34&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="423">
+    <cfRule type="expression" dxfId="574" priority="447">
       <formula>AND(-3&lt;F34,F34&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="855" priority="424">
+    <cfRule type="expression" dxfId="573" priority="448">
       <formula>AND(-2&lt;F34,F34&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="425">
+    <cfRule type="expression" dxfId="572" priority="449">
       <formula>AND(-1.5&lt;F34,F34&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="853" priority="426">
+    <cfRule type="expression" dxfId="571" priority="450">
       <formula>F35&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="427">
+    <cfRule type="expression" dxfId="570" priority="451">
       <formula>AND(-3&lt;F35,F35&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="428">
+    <cfRule type="expression" dxfId="569" priority="452">
       <formula>AND(-2&lt;F35,F35&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="429">
+    <cfRule type="expression" dxfId="568" priority="453">
       <formula>AND(-1.5&lt;F35,F35&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="849" priority="430">
+    <cfRule type="expression" dxfId="567" priority="454">
       <formula>F36&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="431">
+    <cfRule type="expression" dxfId="566" priority="455">
       <formula>AND(-3&lt;F36,F36&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="847" priority="432">
+    <cfRule type="expression" dxfId="565" priority="456">
       <formula>AND(-2&lt;F36,F36&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="433">
+    <cfRule type="expression" dxfId="564" priority="457">
       <formula>AND(-1.5&lt;F36,F36&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="845" priority="434">
+    <cfRule type="expression" dxfId="563" priority="458">
       <formula>F37&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="435">
+    <cfRule type="expression" dxfId="562" priority="459">
       <formula>AND(-3&lt;F37,F37&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="436">
+    <cfRule type="expression" dxfId="561" priority="460">
       <formula>AND(-2&lt;F37,F37&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="437">
+    <cfRule type="expression" dxfId="560" priority="461">
       <formula>AND(-1.5&lt;F37,F37&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="841" priority="68">
+    <cfRule type="expression" dxfId="559" priority="92">
       <formula>F4&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="69">
+    <cfRule type="expression" dxfId="558" priority="93">
       <formula>AND(-3&lt;F4,F4&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="839" priority="70">
+    <cfRule type="expression" dxfId="557" priority="94">
       <formula>AND(-2&lt;F4,F4&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="71">
+    <cfRule type="expression" dxfId="556" priority="95">
       <formula>AND(-1.5&lt;F4,F4&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="837" priority="72">
+    <cfRule type="expression" dxfId="555" priority="96">
       <formula>F5&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="73">
+    <cfRule type="expression" dxfId="554" priority="97">
       <formula>AND(-3&lt;F5,F5&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="74">
+    <cfRule type="expression" dxfId="553" priority="98">
       <formula>AND(-2&lt;F5,F5&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="75">
+    <cfRule type="expression" dxfId="552" priority="99">
       <formula>AND(-1.5&lt;F5,F5&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="833" priority="76">
+    <cfRule type="expression" dxfId="551" priority="100">
       <formula>F6&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="77">
+    <cfRule type="expression" dxfId="550" priority="101">
       <formula>AND(-3&lt;F6,F6&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="831" priority="78">
+    <cfRule type="expression" dxfId="549" priority="102">
       <formula>AND(-2&lt;F6,F6&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="79">
+    <cfRule type="expression" dxfId="548" priority="103">
       <formula>AND(-1.5&lt;F6,F6&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="829" priority="80">
+    <cfRule type="expression" dxfId="547" priority="104">
       <formula>F7&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="81">
+    <cfRule type="expression" dxfId="546" priority="105">
       <formula>AND(-3&lt;F7,F7&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="82">
+    <cfRule type="expression" dxfId="545" priority="106">
       <formula>AND(-2&lt;F7,F7&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="83">
+    <cfRule type="expression" dxfId="544" priority="107">
       <formula>AND(-1.5&lt;F7,F7&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="825" priority="84">
+    <cfRule type="expression" dxfId="543" priority="108">
       <formula>F8&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="85">
+    <cfRule type="expression" dxfId="542" priority="109">
       <formula>AND(-3&lt;F8,F8&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="823" priority="86">
+    <cfRule type="expression" dxfId="541" priority="110">
       <formula>AND(-2&lt;F8,F8&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="87">
+    <cfRule type="expression" dxfId="540" priority="111">
       <formula>AND(-1.5&lt;F8,F8&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="821" priority="88">
+    <cfRule type="expression" dxfId="539" priority="112">
       <formula>F9&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="89">
+    <cfRule type="expression" dxfId="538" priority="113">
       <formula>AND(-3&lt;F9,F9&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="90">
+    <cfRule type="expression" dxfId="537" priority="114">
       <formula>AND(-2&lt;F9,F9&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="91">
+    <cfRule type="expression" dxfId="536" priority="115">
       <formula>AND(-1.5&lt;F9,F9&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="817" priority="32">
+    <cfRule type="expression" dxfId="535" priority="56">
       <formula>F10&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="33">
+    <cfRule type="expression" dxfId="534" priority="57">
       <formula>AND(3&gt;F10, F10&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="815" priority="34">
+    <cfRule type="expression" dxfId="533" priority="58">
       <formula>AND(2&gt;F10, F10&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="35">
+    <cfRule type="expression" dxfId="532" priority="59">
       <formula>AND(1.5&gt;F10, F10&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="813" priority="36">
+    <cfRule type="expression" dxfId="531" priority="60">
       <formula>F11&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="37">
+    <cfRule type="expression" dxfId="530" priority="61">
       <formula>AND(3&gt;F11, F11&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="38">
+    <cfRule type="expression" dxfId="529" priority="62">
       <formula>AND(2&gt;F11, F11&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="39">
+    <cfRule type="expression" dxfId="528" priority="63">
       <formula>AND(1.5&gt;F11, F11&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="809" priority="40">
+    <cfRule type="expression" dxfId="527" priority="64">
       <formula>F12&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="41">
+    <cfRule type="expression" dxfId="526" priority="65">
       <formula>AND(3&gt;F12, F12&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="807" priority="42">
+    <cfRule type="expression" dxfId="525" priority="66">
       <formula>AND(2&gt;F12, F12&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="43">
+    <cfRule type="expression" dxfId="524" priority="67">
       <formula>AND(1.5&gt;F12, F12&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="805" priority="44">
+    <cfRule type="expression" dxfId="523" priority="68">
       <formula>F13&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="45">
+    <cfRule type="expression" dxfId="522" priority="69">
       <formula>AND(3&gt;F13, F13&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="46">
+    <cfRule type="expression" dxfId="521" priority="70">
       <formula>AND(2&gt;F13, F13&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="47">
+    <cfRule type="expression" dxfId="520" priority="71">
       <formula>AND(1.5&gt;F13, F13&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="801" priority="48">
+    <cfRule type="expression" dxfId="519" priority="72">
       <formula>F14&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="49">
+    <cfRule type="expression" dxfId="518" priority="73">
       <formula>AND(3&gt;F14, F14&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="799" priority="50">
+    <cfRule type="expression" dxfId="517" priority="74">
       <formula>AND(2&gt;F14, F14&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="51">
+    <cfRule type="expression" dxfId="516" priority="75">
       <formula>AND(1.5&gt;F14, F14&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="797" priority="52">
+    <cfRule type="expression" dxfId="515" priority="76">
       <formula>F15&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="53">
+    <cfRule type="expression" dxfId="514" priority="77">
       <formula>AND(3&gt;F15, F15&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="54">
+    <cfRule type="expression" dxfId="513" priority="78">
       <formula>AND(2&gt;F15, F15&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="55">
+    <cfRule type="expression" dxfId="512" priority="79">
       <formula>AND(1.5&gt;F15, F15&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="793" priority="56">
+    <cfRule type="expression" dxfId="511" priority="80">
       <formula>F16&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="57">
+    <cfRule type="expression" dxfId="510" priority="81">
       <formula>AND(3&gt;F16, F16&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="791" priority="58">
+    <cfRule type="expression" dxfId="509" priority="82">
       <formula>AND(2&gt;F16, F16&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="59">
+    <cfRule type="expression" dxfId="508" priority="83">
       <formula>AND(1.5&gt;F16, F16&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="789" priority="60">
+    <cfRule type="expression" dxfId="507" priority="84">
       <formula>F17&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="61">
+    <cfRule type="expression" dxfId="506" priority="85">
       <formula>AND(3&gt;F17, F17&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="62">
+    <cfRule type="expression" dxfId="505" priority="86">
       <formula>AND(2&gt;F17, F17&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="63">
+    <cfRule type="expression" dxfId="504" priority="87">
       <formula>AND(1.5&gt;F17, F17&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="785" priority="310">
+    <cfRule type="expression" dxfId="503" priority="334">
       <formula>F22&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="311">
+    <cfRule type="expression" dxfId="502" priority="335">
       <formula>AND(3&gt;F22, F22&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="312">
+    <cfRule type="expression" dxfId="501" priority="336">
       <formula>AND(2&gt;F22, F22&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="313">
+    <cfRule type="expression" dxfId="500" priority="337">
       <formula>AND(1.5&gt;F22, F22&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="781" priority="314">
+    <cfRule type="expression" dxfId="499" priority="338">
       <formula>F23&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="315">
+    <cfRule type="expression" dxfId="498" priority="339">
       <formula>AND(3&gt;F23, F23&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="316">
+    <cfRule type="expression" dxfId="497" priority="340">
       <formula>AND(2&gt;F23, F23&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="317">
+    <cfRule type="expression" dxfId="496" priority="341">
       <formula>AND(1.5&gt;F23, F23&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="777" priority="318">
+    <cfRule type="expression" dxfId="495" priority="342">
       <formula>F24&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="319">
+    <cfRule type="expression" dxfId="494" priority="343">
       <formula>AND(3&gt;F24, F24&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="775" priority="320">
+    <cfRule type="expression" dxfId="493" priority="344">
       <formula>AND(2&gt;F24, F24&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="321">
+    <cfRule type="expression" dxfId="492" priority="345">
       <formula>AND(1.5&gt;F24, F24&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="773" priority="322">
+    <cfRule type="expression" dxfId="491" priority="346">
       <formula>F25&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="323">
+    <cfRule type="expression" dxfId="490" priority="347">
       <formula>AND(3&gt;F25, F25&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="324">
+    <cfRule type="expression" dxfId="489" priority="348">
       <formula>AND(2&gt;F25, F25&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="325">
+    <cfRule type="expression" dxfId="488" priority="349">
       <formula>AND(1.5&gt;F25, F25&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="769" priority="326">
+    <cfRule type="expression" dxfId="487" priority="350">
       <formula>F26&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="327">
+    <cfRule type="expression" dxfId="486" priority="351">
       <formula>AND(3&gt;F26, F26&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="767" priority="328">
+    <cfRule type="expression" dxfId="485" priority="352">
       <formula>AND(2&gt;F26, F26&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="329">
+    <cfRule type="expression" dxfId="484" priority="353">
       <formula>AND(1.5&gt;F26, F26&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="765" priority="330">
+    <cfRule type="expression" dxfId="483" priority="354">
       <formula>F27&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="331">
+    <cfRule type="expression" dxfId="482" priority="355">
       <formula>AND(3&gt;F27, F27&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="332">
+    <cfRule type="expression" dxfId="481" priority="356">
       <formula>AND(2&gt;F27, F27&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="333">
+    <cfRule type="expression" dxfId="480" priority="357">
       <formula>AND(1.5&gt;F27, F27&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="761" priority="334">
+    <cfRule type="expression" dxfId="479" priority="358">
       <formula>F28&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="335">
+    <cfRule type="expression" dxfId="478" priority="359">
       <formula>AND(3&gt;F28, F28&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="759" priority="336">
+    <cfRule type="expression" dxfId="477" priority="360">
       <formula>AND(2&gt;F28, F28&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="337">
+    <cfRule type="expression" dxfId="476" priority="361">
       <formula>AND(1.5&gt;F28, F28&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="757" priority="338">
+    <cfRule type="expression" dxfId="475" priority="362">
       <formula>F29&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="339">
+    <cfRule type="expression" dxfId="474" priority="363">
       <formula>AND(3&gt;F29, F29&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="340">
+    <cfRule type="expression" dxfId="473" priority="364">
       <formula>AND(2&gt;F29, F29&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="341">
+    <cfRule type="expression" dxfId="472" priority="365">
       <formula>AND(1.5&gt;F29, F29&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="753" priority="4">
+    <cfRule type="expression" dxfId="471" priority="28">
       <formula>F3&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="5">
+    <cfRule type="expression" dxfId="470" priority="29">
       <formula>AND(3&gt;F3, F3&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="751" priority="6">
+    <cfRule type="expression" dxfId="469" priority="30">
       <formula>AND(2&gt;F3, F3&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="7">
+    <cfRule type="expression" dxfId="468" priority="31">
       <formula>AND(1.5&gt;F3, F3&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="749" priority="342">
+    <cfRule type="expression" dxfId="467" priority="366">
       <formula>F30&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="343">
+    <cfRule type="expression" dxfId="466" priority="367">
       <formula>AND(3&gt;F30, F30&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="344">
+    <cfRule type="expression" dxfId="465" priority="368">
       <formula>AND(2&gt;F30, F30&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="345">
+    <cfRule type="expression" dxfId="464" priority="369">
       <formula>AND(1.5&gt;F30, F30&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="745" priority="346">
+    <cfRule type="expression" dxfId="463" priority="370">
       <formula>F31&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="347">
+    <cfRule type="expression" dxfId="462" priority="371">
       <formula>AND(3&gt;F31, F31&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="743" priority="348">
+    <cfRule type="expression" dxfId="461" priority="372">
       <formula>AND(2&gt;F31, F31&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="349">
+    <cfRule type="expression" dxfId="460" priority="373">
       <formula>AND(1.5&gt;F31, F31&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="741" priority="350">
+    <cfRule type="expression" dxfId="459" priority="374">
       <formula>F32&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="351">
+    <cfRule type="expression" dxfId="458" priority="375">
       <formula>AND(3&gt;F32, F32&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="352">
+    <cfRule type="expression" dxfId="457" priority="376">
       <formula>AND(2&gt;F32, F32&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="353">
+    <cfRule type="expression" dxfId="456" priority="377">
       <formula>AND(1.5&gt;F32, F32&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="737" priority="354">
+    <cfRule type="expression" dxfId="455" priority="378">
       <formula>F33&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="355">
+    <cfRule type="expression" dxfId="454" priority="379">
       <formula>AND(3&gt;F33, F33&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="735" priority="356">
+    <cfRule type="expression" dxfId="453" priority="380">
       <formula>AND(2&gt;F33, F33&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="357">
+    <cfRule type="expression" dxfId="452" priority="381">
       <formula>AND(1.5&gt;F33, F33&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="733" priority="358">
+    <cfRule type="expression" dxfId="451" priority="382">
       <formula>F34&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="359">
+    <cfRule type="expression" dxfId="450" priority="383">
       <formula>AND(3&gt;F34, F34&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="360">
+    <cfRule type="expression" dxfId="449" priority="384">
       <formula>AND(2&gt;F34, F34&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="361">
+    <cfRule type="expression" dxfId="448" priority="385">
       <formula>AND(1.5&gt;F34, F34&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="729" priority="362">
+    <cfRule type="expression" dxfId="447" priority="386">
       <formula>F35&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="363">
+    <cfRule type="expression" dxfId="446" priority="387">
       <formula>AND(3&gt;F35, F35&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="364">
+    <cfRule type="expression" dxfId="445" priority="388">
       <formula>AND(2&gt;F35, F35&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="365">
+    <cfRule type="expression" dxfId="444" priority="389">
       <formula>AND(1.5&gt;F35, F35&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="725" priority="366">
+    <cfRule type="expression" dxfId="443" priority="390">
       <formula>F36&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="367">
+    <cfRule type="expression" dxfId="442" priority="391">
       <formula>AND(3&gt;F36, F36&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="368">
+    <cfRule type="expression" dxfId="441" priority="392">
       <formula>AND(2&gt;F36, F36&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="369">
+    <cfRule type="expression" dxfId="440" priority="393">
       <formula>AND(1.5&gt;F36, F36&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="721" priority="370">
+    <cfRule type="expression" dxfId="439" priority="394">
       <formula>F37&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="371">
+    <cfRule type="expression" dxfId="438" priority="395">
       <formula>AND(3&gt;F37, F37&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="719" priority="372">
+    <cfRule type="expression" dxfId="437" priority="396">
       <formula>AND(2&gt;F37, F37&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="373">
+    <cfRule type="expression" dxfId="436" priority="397">
       <formula>AND(1.5&gt;F37, F37&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="717" priority="8">
+    <cfRule type="expression" dxfId="435" priority="32">
       <formula>F4&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="9">
+    <cfRule type="expression" dxfId="434" priority="33">
       <formula>AND(3&gt;F4, F4&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="10">
+    <cfRule type="expression" dxfId="433" priority="34">
       <formula>AND(2&gt;F4, F4&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="11">
+    <cfRule type="expression" dxfId="432" priority="35">
       <formula>AND(1.5&gt;F4, F4&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="713" priority="12">
+    <cfRule type="expression" dxfId="431" priority="36">
       <formula>F5&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="13">
+    <cfRule type="expression" dxfId="430" priority="37">
       <formula>AND(3&gt;F5, F5&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="14">
+    <cfRule type="expression" dxfId="429" priority="38">
       <formula>AND(2&gt;F5, F5&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="15">
+    <cfRule type="expression" dxfId="428" priority="39">
       <formula>AND(1.5&gt;F5, F5&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="709" priority="16">
+    <cfRule type="expression" dxfId="427" priority="40">
       <formula>F6&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="17">
+    <cfRule type="expression" dxfId="426" priority="41">
       <formula>AND(3&gt;F6, F6&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="18">
+    <cfRule type="expression" dxfId="425" priority="42">
       <formula>AND(2&gt;F6, F6&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="19">
+    <cfRule type="expression" dxfId="424" priority="43">
       <formula>AND(1.5&gt;F6, F6&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="705" priority="20">
+    <cfRule type="expression" dxfId="423" priority="44">
       <formula>F7&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="21">
+    <cfRule type="expression" dxfId="422" priority="45">
       <formula>AND(3&gt;F7, F7&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="703" priority="22">
+    <cfRule type="expression" dxfId="421" priority="46">
       <formula>AND(2&gt;F7, F7&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="23">
+    <cfRule type="expression" dxfId="420" priority="47">
       <formula>AND(1.5&gt;F7, F7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="701" priority="24">
+    <cfRule type="expression" dxfId="419" priority="48">
       <formula>F8&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="25">
+    <cfRule type="expression" dxfId="418" priority="49">
       <formula>AND(3&gt;F8, F8&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="26">
+    <cfRule type="expression" dxfId="417" priority="50">
       <formula>AND(2&gt;F8, F8&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="27">
+    <cfRule type="expression" dxfId="416" priority="51">
       <formula>AND(1.5&gt;F8, F8&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="697" priority="28">
+    <cfRule type="expression" dxfId="415" priority="52">
       <formula>F9&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="29">
+    <cfRule type="expression" dxfId="414" priority="53">
       <formula>AND(3&gt;F9, F9&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="695" priority="30">
+    <cfRule type="expression" dxfId="413" priority="54">
       <formula>AND(2&gt;F9, F9&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="31">
+    <cfRule type="expression" dxfId="412" priority="55">
       <formula>AND(1.5&gt;F9, F9&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F37">
-    <cfRule type="dataBar" priority="632">
+    <cfRule type="dataBar" priority="656">
       <dataBar>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -9808,7 +7546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F17">
-    <cfRule type="dataBar" priority="306">
+    <cfRule type="dataBar" priority="330">
       <dataBar>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -9821,690 +7559,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="693" priority="259">
-      <formula>I10&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="692" priority="260">
-      <formula>AND(-20&gt;I10,I10&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="691" priority="261">
-      <formula>AND(0&gt;I10,I10&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="690" priority="265">
-      <formula>I11&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="689" priority="266">
-      <formula>AND(-20&gt;I11,I11&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="688" priority="267">
-      <formula>AND(0&gt;I11,I11&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="687" priority="271">
-      <formula>I12&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="686" priority="272">
-      <formula>AND(-20&gt;I12,I12&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="685" priority="273">
-      <formula>AND(0&gt;I12,I12&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="684" priority="277">
-      <formula>I13&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="683" priority="278">
-      <formula>AND(-20&gt;I13,I13&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="682" priority="279">
-      <formula>AND(0&gt;I13,I13&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="681" priority="283">
-      <formula>I14&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="680" priority="284">
-      <formula>AND(-20&gt;I14,I14&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="679" priority="285">
-      <formula>AND(0&gt;I14,I14&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="678" priority="289">
-      <formula>I15&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="677" priority="290">
-      <formula>AND(-20&gt;I15,I15&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="676" priority="291">
-      <formula>AND(0&gt;I15,I15&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="675" priority="295">
-      <formula>I16&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="674" priority="296">
-      <formula>AND(-20&gt;I16,I16&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="673" priority="297">
-      <formula>AND(0&gt;I16,I16&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="672" priority="301">
-      <formula>I17&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="671" priority="302">
-      <formula>AND(-20&gt;I17,I17&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="670" priority="303">
-      <formula>AND(0&gt;I17,I17&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="669" priority="537">
-      <formula>I22&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="668" priority="538">
-      <formula>AND(-20&gt;I22,I22&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="667" priority="539">
-      <formula>AND(0&gt;I22,I22&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="666" priority="543">
-      <formula>I23&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="665" priority="544">
-      <formula>AND(-20&gt;I23,I23&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="664" priority="545">
-      <formula>AND(0&gt;I23,I23&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="663" priority="549">
-      <formula>I24&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="662" priority="550">
-      <formula>AND(-20&gt;I24,I24&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="661" priority="551">
-      <formula>AND(0&gt;I24,I24&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="660" priority="555">
-      <formula>I25&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="659" priority="556">
-      <formula>AND(-20&gt;I25,I25&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="658" priority="557">
-      <formula>AND(0&gt;I25,I25&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="657" priority="561">
-      <formula>I26&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="656" priority="562">
-      <formula>AND(-20&gt;I26,I26&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="655" priority="563">
-      <formula>AND(0&gt;I26,I26&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="654" priority="567">
-      <formula>I27&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="653" priority="568">
-      <formula>AND(-20&gt;I27,I27&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="652" priority="569">
-      <formula>AND(0&gt;I27,I27&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="651" priority="573">
-      <formula>I28&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="650" priority="574">
-      <formula>AND(-20&gt;I28,I28&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="649" priority="575">
-      <formula>AND(0&gt;I28,I28&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="648" priority="579">
-      <formula>I29&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="647" priority="580">
-      <formula>AND(-20&gt;I29,I29&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="646" priority="581">
-      <formula>AND(0&gt;I29,I29&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="645" priority="217">
-      <formula>I3&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="644" priority="218">
-      <formula>AND(-20&gt;I3,I3&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="643" priority="219">
-      <formula>AND(0&gt;I3,I3&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="642" priority="585">
-      <formula>I30&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="641" priority="586">
-      <formula>AND(-20&gt;I30,I30&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="640" priority="587">
-      <formula>AND(0&gt;I30,I30&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="639" priority="591">
-      <formula>I31&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="638" priority="592">
-      <formula>AND(-20&gt;I31,I31&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="637" priority="593">
-      <formula>AND(0&gt;I31,I31&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="636" priority="597">
-      <formula>I32&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="635" priority="598">
-      <formula>AND(-20&gt;I32,I32&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="634" priority="599">
-      <formula>AND(0&gt;I32,I32&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="633" priority="603">
-      <formula>I33&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="632" priority="604">
-      <formula>AND(-20&gt;I33,I33&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="631" priority="605">
-      <formula>AND(0&gt;I33,I33&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="630" priority="609">
-      <formula>I34&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="629" priority="610">
-      <formula>AND(-20&gt;I34,I34&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="628" priority="611">
-      <formula>AND(0&gt;I34,I34&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="627" priority="615">
-      <formula>I35&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="626" priority="616">
-      <formula>AND(-20&gt;I35,I35&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="625" priority="617">
-      <formula>AND(0&gt;I35,I35&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="624" priority="621">
-      <formula>I36&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="623" priority="622">
-      <formula>AND(-20&gt;I36,I36&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="622" priority="623">
-      <formula>AND(0&gt;I36,I36&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="621" priority="627">
-      <formula>I37&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="620" priority="628">
-      <formula>AND(-20&gt;I37,I37&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="619" priority="629">
-      <formula>AND(0&gt;I37,I37&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="618" priority="223">
-      <formula>I4&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="617" priority="224">
-      <formula>AND(-20&gt;I4,I4&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="616" priority="225">
-      <formula>AND(0&gt;I4,I4&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="615" priority="229">
-      <formula>I5&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="614" priority="230">
-      <formula>AND(-20&gt;I5,I5&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="613" priority="231">
-      <formula>AND(0&gt;I5,I5&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="612" priority="235">
-      <formula>I6&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="611" priority="236">
-      <formula>AND(-20&gt;I6,I6&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="610" priority="237">
-      <formula>AND(0&gt;I6,I6&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="609" priority="241">
-      <formula>I7&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="608" priority="242">
-      <formula>AND(-20&gt;I7,I7&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="607" priority="243">
-      <formula>AND(0&gt;I7,I7&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="606" priority="247">
-      <formula>I8&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="605" priority="248">
-      <formula>AND(-20&gt;I8,I8&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="604" priority="249">
-      <formula>AND(0&gt;I8,I8&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="603" priority="253">
-      <formula>I9&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="602" priority="254">
-      <formula>AND(-20&gt;I9,I9&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="601" priority="255">
-      <formula>AND(0&gt;I9,I9&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="600" priority="169">
-      <formula>I10&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="599" priority="170">
-      <formula>AND(20&lt;I10,I10&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="598" priority="171">
-      <formula>AND(0&lt;I10,I10&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="597" priority="175">
-      <formula>I11&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="596" priority="176">
-      <formula>AND(20&lt;I11,I11&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="595" priority="177">
-      <formula>AND(0&lt;I11,I11&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="594" priority="181">
-      <formula>I12&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="593" priority="182">
-      <formula>AND(20&lt;I12,I12&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="592" priority="183">
-      <formula>AND(0&lt;I12,I12&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="591" priority="187">
-      <formula>I13&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="590" priority="188">
-      <formula>AND(20&lt;I13,I13&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="589" priority="189">
-      <formula>AND(0&lt;I13,I13&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="588" priority="193">
-      <formula>I14&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="587" priority="194">
-      <formula>AND(20&lt;I14,I14&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="586" priority="195">
-      <formula>AND(0&lt;I14,I14&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="585" priority="199">
-      <formula>I15&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="584" priority="200">
-      <formula>AND(20&lt;I15,I15&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="583" priority="201">
-      <formula>AND(0&lt;I15,I15&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="582" priority="205">
-      <formula>I16&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="581" priority="206">
-      <formula>AND(20&lt;I16,I16&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="580" priority="207">
-      <formula>AND(0&lt;I16,I16&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="579" priority="211">
-      <formula>I17&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="578" priority="212">
-      <formula>AND(20&lt;I17,I17&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="577" priority="213">
-      <formula>AND(0&lt;I17,I17&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="576" priority="441">
-      <formula>I22&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="575" priority="442">
-      <formula>AND(20&lt;I22,I22&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="574" priority="443">
-      <formula>AND(0&lt;I22,I22&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="573" priority="447">
-      <formula>I23&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="572" priority="448">
-      <formula>AND(20&lt;I23,I23&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="571" priority="449">
-      <formula>AND(0&lt;I23,I23&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="570" priority="453">
-      <formula>I24&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="569" priority="454">
-      <formula>AND(20&lt;I24,I24&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="568" priority="455">
-      <formula>AND(0&lt;I24,I24&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="567" priority="459">
-      <formula>I25&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="566" priority="460">
-      <formula>AND(20&lt;I25,I25&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="565" priority="461">
-      <formula>AND(0&lt;I25,I25&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="564" priority="465">
-      <formula>I26&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="563" priority="466">
-      <formula>AND(20&lt;I26,I26&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="562" priority="467">
-      <formula>AND(0&lt;I26,I26&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="561" priority="471">
-      <formula>I27&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="560" priority="472">
-      <formula>AND(20&lt;I27,I27&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="559" priority="473">
-      <formula>AND(0&lt;I27,I27&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="558" priority="477">
-      <formula>I28&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="557" priority="478">
-      <formula>AND(20&lt;I28,I28&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="556" priority="479">
-      <formula>AND(0&lt;I28,I28&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="555" priority="483">
-      <formula>I29&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="554" priority="484">
-      <formula>AND(20&lt;I29,I29&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="553" priority="485">
-      <formula>AND(0&lt;I29,I29&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="552" priority="127">
-      <formula>I3&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="551" priority="128">
-      <formula>AND(20&lt;I3,I3&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="550" priority="129">
-      <formula>AND(0&lt;I3,I3&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="549" priority="489">
-      <formula>I30&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="548" priority="490">
-      <formula>AND(20&lt;I30,I30&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="547" priority="491">
-      <formula>AND(0&lt;I30,I30&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="546" priority="495">
-      <formula>I31&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="545" priority="496">
-      <formula>AND(20&lt;I31,I31&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="544" priority="497">
-      <formula>AND(0&lt;I31,I31&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="543" priority="501">
-      <formula>I32&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="542" priority="502">
-      <formula>AND(20&lt;I32,I32&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="541" priority="503">
-      <formula>AND(0&lt;I32,I32&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="540" priority="507">
-      <formula>I33&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="539" priority="508">
-      <formula>AND(20&lt;I33,I33&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="538" priority="509">
-      <formula>AND(0&lt;I33,I33&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="537" priority="513">
-      <formula>I34&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="536" priority="514">
-      <formula>AND(20&lt;I34,I34&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="535" priority="515">
-      <formula>AND(0&lt;I34,I34&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="534" priority="519">
-      <formula>I35&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="533" priority="520">
-      <formula>AND(20&lt;I35,I35&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="532" priority="521">
-      <formula>AND(0&lt;I35,I35&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="531" priority="525">
-      <formula>I36&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="530" priority="526">
-      <formula>AND(20&lt;I36,I36&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="529" priority="527">
-      <formula>AND(0&lt;I36,I36&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="528" priority="531">
-      <formula>I37&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="527" priority="532">
-      <formula>AND(20&lt;I37,I37&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="526" priority="533">
-      <formula>AND(0&lt;I37,I37&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="525" priority="133">
-      <formula>I4&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="524" priority="134">
-      <formula>AND(20&lt;I4,I4&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="135">
-      <formula>AND(0&lt;I4,I4&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="522" priority="139">
-      <formula>I5&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="521" priority="140">
-      <formula>AND(20&lt;I5,I5&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="520" priority="141">
-      <formula>AND(0&lt;I5,I5&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="519" priority="145">
-      <formula>I6&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="518" priority="146">
-      <formula>AND(20&lt;I6,I6&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="147">
-      <formula>AND(0&lt;I6,I6&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="516" priority="151">
-      <formula>I7&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="152">
-      <formula>AND(20&lt;I7,I7&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="514" priority="153">
-      <formula>AND(0&lt;I7,I7&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="513" priority="157">
-      <formula>I8&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="512" priority="158">
-      <formula>AND(20&lt;I8,I8&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="511" priority="159">
-      <formula>AND(0&lt;I8,I8&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="510" priority="163">
-      <formula>I9&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="164">
-      <formula>AND(20&lt;I9,I9&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="508" priority="165">
-      <formula>AND(0&lt;I9,I9&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I22:I37">
-    <cfRule type="dataBar" priority="630">
+    <cfRule type="dataBar" priority="654">
       <dataBar>
         <cfvo type="num" val="-100%"/>
         <cfvo type="num" val="100%"/>
@@ -10518,7 +7574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I17">
-    <cfRule type="dataBar" priority="304">
+    <cfRule type="dataBar" priority="328">
       <dataBar>
         <cfvo type="num" val="-100%"/>
         <cfvo type="num" val="100%"/>
@@ -10529,6 +7585,94 @@
           <x14:id>{DA7ABA51-AAAA-BBBB-0001-000000000004}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G37">
+    <cfRule type="expression" dxfId="411" priority="19">
+      <formula>I22&lt;=-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="410" priority="20">
+      <formula>AND(-20%&gt;I22,I22&gt;-50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="21">
+      <formula>AND(0%&gt;I22,I22&gt;=-20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G37">
+    <cfRule type="expression" dxfId="408" priority="22">
+      <formula>I22&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="407" priority="23">
+      <formula>AND(-20&gt;I22,I22&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="406" priority="24">
+      <formula>AND(0&gt;I22,I22&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H37">
+    <cfRule type="expression" dxfId="405" priority="13">
+      <formula>I22&gt;=50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="404" priority="14">
+      <formula>AND(20%&lt;I22,I22&lt;50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="15">
+      <formula>AND(0%&lt;I22,I22&lt;=20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H37">
+    <cfRule type="expression" dxfId="402" priority="16">
+      <formula>I22&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="401" priority="17">
+      <formula>AND(20&lt;I22,I22&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="400" priority="18">
+      <formula>AND(0&lt;I22,I22&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G17">
+    <cfRule type="expression" dxfId="399" priority="7">
+      <formula>I3&lt;=-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="398" priority="8">
+      <formula>AND(-20%&gt;I3,I3&gt;-50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="9">
+      <formula>AND(0%&gt;I3,I3&gt;=-20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G17">
+    <cfRule type="expression" dxfId="396" priority="10">
+      <formula>I3&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="11">
+      <formula>AND(-20&gt;I3,I3&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="12">
+      <formula>AND(0&gt;I3,I3&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H17">
+    <cfRule type="expression" dxfId="393" priority="1">
+      <formula>I3&gt;=50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="392" priority="2">
+      <formula>AND(20%&lt;I3,I3&lt;50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="3">
+      <formula>AND(0%&lt;I3,I3&lt;=20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H17">
+    <cfRule type="expression" dxfId="390" priority="4">
+      <formula>I3&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="5">
+      <formula>AND(20&lt;I3,I3&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="6">
+      <formula>AND(0&lt;I3,I3&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10605,8 +7749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10650,10 +7794,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
@@ -11020,10 +8164,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>10</v>
@@ -11378,673 +8522,673 @@
     <mergeCell ref="A17:I17"/>
   </mergeCells>
   <conditionalFormatting sqref="A19:B30">
-    <cfRule type="cellIs" dxfId="507" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="279" operator="equal">
       <formula>"ERROR/TIMEOUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="280" operator="equal">
       <formula>"unsat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="281" operator="equal">
       <formula>"sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="cellIs" dxfId="504" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="33" operator="equal">
       <formula>"ERROR/TIMEOUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="34" operator="equal">
       <formula>"unsat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="35" operator="equal">
       <formula>"sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="501" priority="88">
+    <cfRule type="expression" dxfId="381" priority="112">
       <formula>F10&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="89">
+    <cfRule type="expression" dxfId="380" priority="113">
       <formula>AND(-3&lt;F10,F10&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="90">
+    <cfRule type="expression" dxfId="379" priority="114">
       <formula>AND(-2&lt;F10,F10&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="91">
+    <cfRule type="expression" dxfId="378" priority="115">
       <formula>AND(-1.5&lt;F10,F10&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="497" priority="92">
+    <cfRule type="expression" dxfId="377" priority="116">
       <formula>F11&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="93">
+    <cfRule type="expression" dxfId="376" priority="117">
       <formula>AND(-3&lt;F11,F11&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="94">
+    <cfRule type="expression" dxfId="375" priority="118">
       <formula>AND(-2&lt;F11,F11&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="95">
+    <cfRule type="expression" dxfId="374" priority="119">
       <formula>AND(-1.5&lt;F11,F11&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="493" priority="96">
+    <cfRule type="expression" dxfId="373" priority="120">
       <formula>F12&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="97">
+    <cfRule type="expression" dxfId="372" priority="121">
       <formula>AND(-3&lt;F12,F12&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="98">
+    <cfRule type="expression" dxfId="371" priority="122">
       <formula>AND(-2&lt;F12,F12&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="99">
+    <cfRule type="expression" dxfId="370" priority="123">
       <formula>AND(-1.5&lt;F12,F12&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="489" priority="100">
+    <cfRule type="expression" dxfId="369" priority="124">
       <formula>F13&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="101">
+    <cfRule type="expression" dxfId="368" priority="125">
       <formula>AND(-3&lt;F13,F13&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="102">
+    <cfRule type="expression" dxfId="367" priority="126">
       <formula>AND(-2&lt;F13,F13&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="103">
+    <cfRule type="expression" dxfId="366" priority="127">
       <formula>AND(-1.5&lt;F13,F13&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="485" priority="104">
+    <cfRule type="expression" dxfId="365" priority="128">
       <formula>F14&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="105">
+    <cfRule type="expression" dxfId="364" priority="129">
       <formula>AND(-3&lt;F14,F14&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="106">
+    <cfRule type="expression" dxfId="363" priority="130">
       <formula>AND(-2&lt;F14,F14&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="107">
+    <cfRule type="expression" dxfId="362" priority="131">
       <formula>AND(-1.5&lt;F14,F14&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="481" priority="306">
+    <cfRule type="expression" dxfId="361" priority="330">
       <formula>F19&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="307">
+    <cfRule type="expression" dxfId="360" priority="331">
       <formula>AND(-3&lt;F19,F19&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="308">
+    <cfRule type="expression" dxfId="359" priority="332">
       <formula>AND(-2&lt;F19,F19&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="309">
+    <cfRule type="expression" dxfId="358" priority="333">
       <formula>AND(-1.5&lt;F19,F19&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="477" priority="310">
+    <cfRule type="expression" dxfId="357" priority="334">
       <formula>F20&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="311">
+    <cfRule type="expression" dxfId="356" priority="335">
       <formula>AND(-3&lt;F20,F20&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="312">
+    <cfRule type="expression" dxfId="355" priority="336">
       <formula>AND(-2&lt;F20,F20&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="313">
+    <cfRule type="expression" dxfId="354" priority="337">
       <formula>AND(-1.5&lt;F20,F20&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="473" priority="314">
+    <cfRule type="expression" dxfId="353" priority="338">
       <formula>F21&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="315">
+    <cfRule type="expression" dxfId="352" priority="339">
       <formula>AND(-3&lt;F21,F21&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="316">
+    <cfRule type="expression" dxfId="351" priority="340">
       <formula>AND(-2&lt;F21,F21&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="317">
+    <cfRule type="expression" dxfId="350" priority="341">
       <formula>AND(-1.5&lt;F21,F21&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="469" priority="318">
+    <cfRule type="expression" dxfId="349" priority="342">
       <formula>F22&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="319">
+    <cfRule type="expression" dxfId="348" priority="343">
       <formula>AND(-3&lt;F22,F22&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="320">
+    <cfRule type="expression" dxfId="347" priority="344">
       <formula>AND(-2&lt;F22,F22&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="321">
+    <cfRule type="expression" dxfId="346" priority="345">
       <formula>AND(-1.5&lt;F22,F22&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="465" priority="322">
+    <cfRule type="expression" dxfId="345" priority="346">
       <formula>F23&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="323">
+    <cfRule type="expression" dxfId="344" priority="347">
       <formula>AND(-3&lt;F23,F23&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="324">
+    <cfRule type="expression" dxfId="343" priority="348">
       <formula>AND(-2&lt;F23,F23&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="325">
+    <cfRule type="expression" dxfId="342" priority="349">
       <formula>AND(-1.5&lt;F23,F23&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="461" priority="326">
+    <cfRule type="expression" dxfId="341" priority="350">
       <formula>F24&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="327">
+    <cfRule type="expression" dxfId="340" priority="351">
       <formula>AND(-3&lt;F24,F24&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="328">
+    <cfRule type="expression" dxfId="339" priority="352">
       <formula>AND(-2&lt;F24,F24&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="329">
+    <cfRule type="expression" dxfId="338" priority="353">
       <formula>AND(-1.5&lt;F24,F24&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="457" priority="330">
+    <cfRule type="expression" dxfId="337" priority="354">
       <formula>F25&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="331">
+    <cfRule type="expression" dxfId="336" priority="355">
       <formula>AND(-3&lt;F25,F25&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="332">
+    <cfRule type="expression" dxfId="335" priority="356">
       <formula>AND(-2&lt;F25,F25&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="333">
+    <cfRule type="expression" dxfId="334" priority="357">
       <formula>AND(-1.5&lt;F25,F25&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="453" priority="334">
+    <cfRule type="expression" dxfId="333" priority="358">
       <formula>F26&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="335">
+    <cfRule type="expression" dxfId="332" priority="359">
       <formula>AND(-3&lt;F26,F26&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="336">
+    <cfRule type="expression" dxfId="331" priority="360">
       <formula>AND(-2&lt;F26,F26&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="337">
+    <cfRule type="expression" dxfId="330" priority="361">
       <formula>AND(-1.5&lt;F26,F26&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="449" priority="338">
+    <cfRule type="expression" dxfId="329" priority="362">
       <formula>F27&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="339">
+    <cfRule type="expression" dxfId="328" priority="363">
       <formula>AND(-3&lt;F27,F27&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="340">
+    <cfRule type="expression" dxfId="327" priority="364">
       <formula>AND(-2&lt;F27,F27&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="341">
+    <cfRule type="expression" dxfId="326" priority="365">
       <formula>AND(-1.5&lt;F27,F27&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="445" priority="342">
+    <cfRule type="expression" dxfId="325" priority="366">
       <formula>F28&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="343">
+    <cfRule type="expression" dxfId="324" priority="367">
       <formula>AND(-3&lt;F28,F28&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="344">
+    <cfRule type="expression" dxfId="323" priority="368">
       <formula>AND(-2&lt;F28,F28&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="345">
+    <cfRule type="expression" dxfId="322" priority="369">
       <formula>AND(-1.5&lt;F28,F28&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="441" priority="346">
+    <cfRule type="expression" dxfId="321" priority="370">
       <formula>F29&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="347">
+    <cfRule type="expression" dxfId="320" priority="371">
       <formula>AND(-3&lt;F29,F29&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="348">
+    <cfRule type="expression" dxfId="319" priority="372">
       <formula>AND(-2&lt;F29,F29&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="349">
+    <cfRule type="expression" dxfId="318" priority="373">
       <formula>AND(-1.5&lt;F29,F29&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="437" priority="350">
+    <cfRule type="expression" dxfId="317" priority="374">
       <formula>F30&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="351">
+    <cfRule type="expression" dxfId="316" priority="375">
       <formula>AND(-3&lt;F30,F30&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="352">
+    <cfRule type="expression" dxfId="315" priority="376">
       <formula>AND(-2&lt;F30,F30&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="353">
+    <cfRule type="expression" dxfId="314" priority="377">
       <formula>AND(-1.5&lt;F30,F30&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="433" priority="64">
+    <cfRule type="expression" dxfId="313" priority="88">
       <formula>F4&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="65">
+    <cfRule type="expression" dxfId="312" priority="89">
       <formula>AND(-3&lt;F4,F4&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="66">
+    <cfRule type="expression" dxfId="311" priority="90">
       <formula>AND(-2&lt;F4,F4&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="67">
+    <cfRule type="expression" dxfId="310" priority="91">
       <formula>AND(-1.5&lt;F4,F4&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="429" priority="72">
+    <cfRule type="expression" dxfId="309" priority="96">
       <formula>F6&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="73">
+    <cfRule type="expression" dxfId="308" priority="97">
       <formula>AND(-3&lt;F6,F6&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="74">
+    <cfRule type="expression" dxfId="307" priority="98">
       <formula>AND(-2&lt;F6,F6&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="75">
+    <cfRule type="expression" dxfId="306" priority="99">
       <formula>AND(-1.5&lt;F6,F6&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="425" priority="76">
+    <cfRule type="expression" dxfId="305" priority="100">
       <formula>F7&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="77">
+    <cfRule type="expression" dxfId="304" priority="101">
       <formula>AND(-3&lt;F7,F7&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="78">
+    <cfRule type="expression" dxfId="303" priority="102">
       <formula>AND(-2&lt;F7,F7&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="79">
+    <cfRule type="expression" dxfId="302" priority="103">
       <formula>AND(-1.5&lt;F7,F7&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="421" priority="80">
+    <cfRule type="expression" dxfId="301" priority="104">
       <formula>F8&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="81">
+    <cfRule type="expression" dxfId="300" priority="105">
       <formula>AND(-3&lt;F8,F8&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="82">
+    <cfRule type="expression" dxfId="299" priority="106">
       <formula>AND(-2&lt;F8,F8&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="83">
+    <cfRule type="expression" dxfId="298" priority="107">
       <formula>AND(-1.5&lt;F8,F8&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="417" priority="84">
+    <cfRule type="expression" dxfId="297" priority="108">
       <formula>F9&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="85">
+    <cfRule type="expression" dxfId="296" priority="109">
       <formula>AND(-3&lt;F9,F9&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="86">
+    <cfRule type="expression" dxfId="295" priority="110">
       <formula>AND(-2&lt;F9,F9&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="87">
+    <cfRule type="expression" dxfId="294" priority="111">
       <formula>AND(-1.5&lt;F9,F9&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="413" priority="40">
+    <cfRule type="expression" dxfId="293" priority="64">
       <formula>F10&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="41">
+    <cfRule type="expression" dxfId="292" priority="65">
       <formula>AND(3&gt;F10, F10&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="42">
+    <cfRule type="expression" dxfId="291" priority="66">
       <formula>AND(2&gt;F10, F10&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="43">
+    <cfRule type="expression" dxfId="290" priority="67">
       <formula>AND(1.5&gt;F10, F10&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="409" priority="44">
+    <cfRule type="expression" dxfId="289" priority="68">
       <formula>F11&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="45">
+    <cfRule type="expression" dxfId="288" priority="69">
       <formula>AND(3&gt;F11, F11&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="46">
+    <cfRule type="expression" dxfId="287" priority="70">
       <formula>AND(2&gt;F11, F11&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="47">
+    <cfRule type="expression" dxfId="286" priority="71">
       <formula>AND(1.5&gt;F11, F11&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="405" priority="48">
+    <cfRule type="expression" dxfId="285" priority="72">
       <formula>F12&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="49">
+    <cfRule type="expression" dxfId="284" priority="73">
       <formula>AND(3&gt;F12, F12&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="50">
+    <cfRule type="expression" dxfId="283" priority="74">
       <formula>AND(2&gt;F12, F12&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="51">
+    <cfRule type="expression" dxfId="282" priority="75">
       <formula>AND(1.5&gt;F12, F12&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="401" priority="52">
+    <cfRule type="expression" dxfId="281" priority="76">
       <formula>F13&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="53">
+    <cfRule type="expression" dxfId="280" priority="77">
       <formula>AND(3&gt;F13, F13&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="54">
+    <cfRule type="expression" dxfId="279" priority="78">
       <formula>AND(2&gt;F13, F13&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="55">
+    <cfRule type="expression" dxfId="278" priority="79">
       <formula>AND(1.5&gt;F13, F13&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="397" priority="56">
+    <cfRule type="expression" dxfId="277" priority="80">
       <formula>F14&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="57">
+    <cfRule type="expression" dxfId="276" priority="81">
       <formula>AND(3&gt;F14, F14&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="58">
+    <cfRule type="expression" dxfId="275" priority="82">
       <formula>AND(2&gt;F14, F14&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="59">
+    <cfRule type="expression" dxfId="274" priority="83">
       <formula>AND(1.5&gt;F14, F14&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="393" priority="258">
+    <cfRule type="expression" dxfId="273" priority="282">
       <formula>F19&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="259">
+    <cfRule type="expression" dxfId="272" priority="283">
       <formula>AND(3&gt;F19, F19&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="260">
+    <cfRule type="expression" dxfId="271" priority="284">
       <formula>AND(2&gt;F19, F19&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="261">
+    <cfRule type="expression" dxfId="270" priority="285">
       <formula>AND(1.5&gt;F19, F19&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="389" priority="262">
+    <cfRule type="expression" dxfId="269" priority="286">
       <formula>F20&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="263">
+    <cfRule type="expression" dxfId="268" priority="287">
       <formula>AND(3&gt;F20, F20&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="264">
+    <cfRule type="expression" dxfId="267" priority="288">
       <formula>AND(2&gt;F20, F20&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="265">
+    <cfRule type="expression" dxfId="266" priority="289">
       <formula>AND(1.5&gt;F20, F20&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="385" priority="266">
+    <cfRule type="expression" dxfId="265" priority="290">
       <formula>F21&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="267">
+    <cfRule type="expression" dxfId="264" priority="291">
       <formula>AND(3&gt;F21, F21&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="268">
+    <cfRule type="expression" dxfId="263" priority="292">
       <formula>AND(2&gt;F21, F21&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="269">
+    <cfRule type="expression" dxfId="262" priority="293">
       <formula>AND(1.5&gt;F21, F21&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="381" priority="270">
+    <cfRule type="expression" dxfId="261" priority="294">
       <formula>F22&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="271">
+    <cfRule type="expression" dxfId="260" priority="295">
       <formula>AND(3&gt;F22, F22&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="272">
+    <cfRule type="expression" dxfId="259" priority="296">
       <formula>AND(2&gt;F22, F22&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="273">
+    <cfRule type="expression" dxfId="258" priority="297">
       <formula>AND(1.5&gt;F22, F22&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="377" priority="274">
+    <cfRule type="expression" dxfId="257" priority="298">
       <formula>F23&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="275">
+    <cfRule type="expression" dxfId="256" priority="299">
       <formula>AND(3&gt;F23, F23&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="276">
+    <cfRule type="expression" dxfId="255" priority="300">
       <formula>AND(2&gt;F23, F23&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="277">
+    <cfRule type="expression" dxfId="254" priority="301">
       <formula>AND(1.5&gt;F23, F23&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="373" priority="278">
+    <cfRule type="expression" dxfId="253" priority="302">
       <formula>F24&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="279">
+    <cfRule type="expression" dxfId="252" priority="303">
       <formula>AND(3&gt;F24, F24&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="280">
+    <cfRule type="expression" dxfId="251" priority="304">
       <formula>AND(2&gt;F24, F24&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="281">
+    <cfRule type="expression" dxfId="250" priority="305">
       <formula>AND(1.5&gt;F24, F24&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="369" priority="282">
+    <cfRule type="expression" dxfId="249" priority="306">
       <formula>F25&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="283">
+    <cfRule type="expression" dxfId="248" priority="307">
       <formula>AND(3&gt;F25, F25&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="284">
+    <cfRule type="expression" dxfId="247" priority="308">
       <formula>AND(2&gt;F25, F25&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="285">
+    <cfRule type="expression" dxfId="246" priority="309">
       <formula>AND(1.5&gt;F25, F25&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="365" priority="286">
+    <cfRule type="expression" dxfId="245" priority="310">
       <formula>F26&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="287">
+    <cfRule type="expression" dxfId="244" priority="311">
       <formula>AND(3&gt;F26, F26&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="288">
+    <cfRule type="expression" dxfId="243" priority="312">
       <formula>AND(2&gt;F26, F26&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="289">
+    <cfRule type="expression" dxfId="242" priority="313">
       <formula>AND(1.5&gt;F26, F26&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="361" priority="290">
+    <cfRule type="expression" dxfId="241" priority="314">
       <formula>F27&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="291">
+    <cfRule type="expression" dxfId="240" priority="315">
       <formula>AND(3&gt;F27, F27&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="292">
+    <cfRule type="expression" dxfId="239" priority="316">
       <formula>AND(2&gt;F27, F27&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="293">
+    <cfRule type="expression" dxfId="238" priority="317">
       <formula>AND(1.5&gt;F27, F27&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="357" priority="294">
+    <cfRule type="expression" dxfId="237" priority="318">
       <formula>F28&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="295">
+    <cfRule type="expression" dxfId="236" priority="319">
       <formula>AND(3&gt;F28, F28&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="296">
+    <cfRule type="expression" dxfId="235" priority="320">
       <formula>AND(2&gt;F28, F28&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="297">
+    <cfRule type="expression" dxfId="234" priority="321">
       <formula>AND(1.5&gt;F28, F28&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="353" priority="298">
+    <cfRule type="expression" dxfId="233" priority="322">
       <formula>F29&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="299">
+    <cfRule type="expression" dxfId="232" priority="323">
       <formula>AND(3&gt;F29, F29&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="300">
+    <cfRule type="expression" dxfId="231" priority="324">
       <formula>AND(2&gt;F29, F29&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="301">
+    <cfRule type="expression" dxfId="230" priority="325">
       <formula>AND(1.5&gt;F29, F29&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="349" priority="12">
+    <cfRule type="expression" dxfId="229" priority="36">
       <formula>F3&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="13">
+    <cfRule type="expression" dxfId="228" priority="37">
       <formula>AND(3&gt;F3, F3&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="14">
+    <cfRule type="expression" dxfId="227" priority="38">
       <formula>AND(2&gt;F3, F3&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="15">
+    <cfRule type="expression" dxfId="226" priority="39">
       <formula>AND(1.5&gt;F3, F3&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="345" priority="302">
+    <cfRule type="expression" dxfId="225" priority="326">
       <formula>F30&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="303">
+    <cfRule type="expression" dxfId="224" priority="327">
       <formula>AND(3&gt;F30, F30&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="304">
+    <cfRule type="expression" dxfId="223" priority="328">
       <formula>AND(2&gt;F30, F30&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="305">
+    <cfRule type="expression" dxfId="222" priority="329">
       <formula>AND(1.5&gt;F30, F30&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="341" priority="16">
+    <cfRule type="expression" dxfId="221" priority="40">
       <formula>F4&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="17">
+    <cfRule type="expression" dxfId="220" priority="41">
       <formula>AND(3&gt;F4, F4&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="18">
+    <cfRule type="expression" dxfId="219" priority="42">
       <formula>AND(2&gt;F4, F4&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="19">
+    <cfRule type="expression" dxfId="218" priority="43">
       <formula>AND(1.5&gt;F4, F4&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="337" priority="20">
+    <cfRule type="expression" dxfId="217" priority="44">
       <formula>F5&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="21">
+    <cfRule type="expression" dxfId="216" priority="45">
       <formula>AND(3&gt;F5, F5&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="22">
+    <cfRule type="expression" dxfId="215" priority="46">
       <formula>AND(2&gt;F5, F5&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="23">
+    <cfRule type="expression" dxfId="214" priority="47">
       <formula>AND(1.5&gt;F5, F5&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="333" priority="24">
+    <cfRule type="expression" dxfId="213" priority="48">
       <formula>F6&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="25">
+    <cfRule type="expression" dxfId="212" priority="49">
       <formula>AND(3&gt;F6, F6&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="26">
+    <cfRule type="expression" dxfId="211" priority="50">
       <formula>AND(2&gt;F6, F6&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="27">
+    <cfRule type="expression" dxfId="210" priority="51">
       <formula>AND(1.5&gt;F6, F6&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="329" priority="28">
+    <cfRule type="expression" dxfId="209" priority="52">
       <formula>F7&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="29">
+    <cfRule type="expression" dxfId="208" priority="53">
       <formula>AND(3&gt;F7, F7&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="30">
+    <cfRule type="expression" dxfId="207" priority="54">
       <formula>AND(2&gt;F7, F7&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="31">
+    <cfRule type="expression" dxfId="206" priority="55">
       <formula>AND(1.5&gt;F7, F7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="325" priority="32">
+    <cfRule type="expression" dxfId="205" priority="56">
       <formula>F8&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="33">
+    <cfRule type="expression" dxfId="204" priority="57">
       <formula>AND(3&gt;F8, F8&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="34">
+    <cfRule type="expression" dxfId="203" priority="58">
       <formula>AND(2&gt;F8, F8&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="35">
+    <cfRule type="expression" dxfId="202" priority="59">
       <formula>AND(1.5&gt;F8, F8&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="321" priority="36">
+    <cfRule type="expression" dxfId="201" priority="60">
       <formula>F9&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="37">
+    <cfRule type="expression" dxfId="200" priority="61">
       <formula>AND(3&gt;F9, F9&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="38">
+    <cfRule type="expression" dxfId="199" priority="62">
       <formula>AND(2&gt;F9, F9&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="39">
+    <cfRule type="expression" dxfId="198" priority="63">
       <formula>AND(1.5&gt;F9, F9&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F30">
-    <cfRule type="dataBar" priority="500">
+    <cfRule type="dataBar" priority="524">
       <dataBar>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -12058,7 +9202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F14">
-    <cfRule type="dataBar" priority="254">
+    <cfRule type="dataBar" priority="278">
       <dataBar>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -12071,536 +9215,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="317" priority="222">
-      <formula>I10&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="223">
-      <formula>AND(-20&gt;I10,I10&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="224">
-      <formula>AND(0&gt;I10,I10&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="314" priority="228">
-      <formula>I11&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="229">
-      <formula>AND(-20&gt;I11,I11&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="230">
-      <formula>AND(0&gt;I11,I11&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="311" priority="234">
-      <formula>I12&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="235">
-      <formula>AND(-20&gt;I12,I12&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="309" priority="236">
-      <formula>AND(0&gt;I12,I12&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="308" priority="240">
-      <formula>I13&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="307" priority="241">
-      <formula>AND(-20&gt;I13,I13&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="242">
-      <formula>AND(0&gt;I13,I13&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="305" priority="246">
-      <formula>I14&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="247">
-      <formula>AND(-20&gt;I14,I14&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="248">
-      <formula>AND(0&gt;I14,I14&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="302" priority="426">
-      <formula>I19&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="427">
-      <formula>AND(-20&gt;I19,I19&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="428">
-      <formula>AND(0&gt;I19,I19&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="299" priority="432">
-      <formula>I20&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="433">
-      <formula>AND(-20&gt;I20,I20&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="434">
-      <formula>AND(0&gt;I20,I20&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="296" priority="438">
-      <formula>I21&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="295" priority="439">
-      <formula>AND(-20&gt;I21,I21&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="440">
-      <formula>AND(0&gt;I21,I21&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="293" priority="444">
-      <formula>I22&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="445">
-      <formula>AND(-20&gt;I22,I22&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="446">
-      <formula>AND(0&gt;I22,I22&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="290" priority="450">
-      <formula>I23&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="451">
-      <formula>AND(-20&gt;I23,I23&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="452">
-      <formula>AND(0&gt;I23,I23&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="287" priority="456">
-      <formula>I24&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="457">
-      <formula>AND(-20&gt;I24,I24&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="458">
-      <formula>AND(0&gt;I24,I24&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="284" priority="462">
-      <formula>I25&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="463">
-      <formula>AND(-20&gt;I25,I25&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="464">
-      <formula>AND(0&gt;I25,I25&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="281" priority="468">
-      <formula>I26&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="469">
-      <formula>AND(-20&gt;I26,I26&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="470">
-      <formula>AND(0&gt;I26,I26&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="278" priority="474">
-      <formula>I27&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="475">
-      <formula>AND(-20&gt;I27,I27&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="476">
-      <formula>AND(0&gt;I27,I27&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="275" priority="480">
-      <formula>I28&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="481">
-      <formula>AND(-20&gt;I28,I28&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="482">
-      <formula>AND(0&gt;I28,I28&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="272" priority="486">
-      <formula>I29&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="487">
-      <formula>AND(-20&gt;I29,I29&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="488">
-      <formula>AND(0&gt;I29,I29&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="269" priority="180">
-      <formula>I3&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="181">
-      <formula>AND(-20&gt;I3,I3&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="182">
-      <formula>AND(0&gt;I3,I3&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="266" priority="492">
-      <formula>I30&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="493">
-      <formula>AND(-20&gt;I30,I30&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="494">
-      <formula>AND(0&gt;I30,I30&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="263" priority="186">
-      <formula>I4&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="187">
-      <formula>AND(-20&gt;I4,I4&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="188">
-      <formula>AND(0&gt;I4,I4&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="260" priority="192">
-      <formula>I5&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="193">
-      <formula>AND(-20&gt;I5,I5&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="194">
-      <formula>AND(0&gt;I5,I5&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="257" priority="198">
-      <formula>I6&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="199">
-      <formula>AND(-20&gt;I6,I6&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="200">
-      <formula>AND(0&gt;I6,I6&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="254" priority="204">
-      <formula>I7&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="205">
-      <formula>AND(-20&gt;I7,I7&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="206">
-      <formula>AND(0&gt;I7,I7&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="251" priority="210">
-      <formula>I8&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="211">
-      <formula>AND(-20&gt;I8,I8&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="212">
-      <formula>AND(0&gt;I8,I8&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="248" priority="216">
-      <formula>I9&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="217">
-      <formula>AND(-20&gt;I9,I9&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="218">
-      <formula>AND(0&gt;I9,I9&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="245" priority="150">
-      <formula>I10&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="151">
-      <formula>AND(20&lt;I10,I10&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="152">
-      <formula>AND(0&lt;I10,I10&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="242" priority="156">
-      <formula>I11&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="157">
-      <formula>AND(20&lt;I11,I11&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="158">
-      <formula>AND(0&lt;I11,I11&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="239" priority="162">
-      <formula>I12&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="163">
-      <formula>AND(20&lt;I12,I12&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="164">
-      <formula>AND(0&lt;I12,I12&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="236" priority="168">
-      <formula>I13&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="169">
-      <formula>AND(20&lt;I13,I13&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="170">
-      <formula>AND(0&lt;I13,I13&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="233" priority="174">
-      <formula>I14&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="175">
-      <formula>AND(20&lt;I14,I14&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="176">
-      <formula>AND(0&lt;I14,I14&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="230" priority="354">
-      <formula>I19&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="355">
-      <formula>AND(20&lt;I19,I19&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="356">
-      <formula>AND(0&lt;I19,I19&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="227" priority="360">
-      <formula>I20&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="361">
-      <formula>AND(20&lt;I20,I20&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="362">
-      <formula>AND(0&lt;I20,I20&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="224" priority="366">
-      <formula>I21&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="367">
-      <formula>AND(20&lt;I21,I21&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="368">
-      <formula>AND(0&lt;I21,I21&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="221" priority="372">
-      <formula>I22&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="373">
-      <formula>AND(20&lt;I22,I22&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="374">
-      <formula>AND(0&lt;I22,I22&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="218" priority="378">
-      <formula>I23&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="379">
-      <formula>AND(20&lt;I23,I23&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="380">
-      <formula>AND(0&lt;I23,I23&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="215" priority="384">
-      <formula>I24&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="385">
-      <formula>AND(20&lt;I24,I24&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="386">
-      <formula>AND(0&lt;I24,I24&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="212" priority="390">
-      <formula>I25&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="391">
-      <formula>AND(20&lt;I25,I25&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="392">
-      <formula>AND(0&lt;I25,I25&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="209" priority="396">
-      <formula>I26&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="397">
-      <formula>AND(20&lt;I26,I26&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="398">
-      <formula>AND(0&lt;I26,I26&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="206" priority="402">
-      <formula>I27&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="403">
-      <formula>AND(20&lt;I27,I27&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="404">
-      <formula>AND(0&lt;I27,I27&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="203" priority="408">
-      <formula>I28&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="409">
-      <formula>AND(20&lt;I28,I28&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="410">
-      <formula>AND(0&lt;I28,I28&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="200" priority="414">
-      <formula>I29&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="415">
-      <formula>AND(20&lt;I29,I29&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="416">
-      <formula>AND(0&lt;I29,I29&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="197" priority="108">
-      <formula>I3&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="109">
-      <formula>AND(20&lt;I3,I3&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="110">
-      <formula>AND(0&lt;I3,I3&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="194" priority="420">
-      <formula>I30&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="421">
-      <formula>AND(20&lt;I30,I30&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="422">
-      <formula>AND(0&lt;I30,I30&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="191" priority="114">
-      <formula>I4&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="115">
-      <formula>AND(20&lt;I4,I4&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="116">
-      <formula>AND(0&lt;I4,I4&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="188" priority="120">
-      <formula>I5&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="121">
-      <formula>AND(20&lt;I5,I5&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="122">
-      <formula>AND(0&lt;I5,I5&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="185" priority="126">
-      <formula>I6&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="127">
-      <formula>AND(20&lt;I6,I6&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="128">
-      <formula>AND(0&lt;I6,I6&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="182" priority="132">
-      <formula>I7&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="133">
-      <formula>AND(20&lt;I7,I7&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="134">
-      <formula>AND(0&lt;I7,I7&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="179" priority="138">
-      <formula>I8&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="139">
-      <formula>AND(20&lt;I8,I8&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="140">
-      <formula>AND(0&lt;I8,I8&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="176" priority="144">
-      <formula>I9&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="145">
-      <formula>AND(20&lt;I9,I9&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="146">
-      <formula>AND(0&lt;I9,I9&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I19:I30">
-    <cfRule type="dataBar" priority="499">
+    <cfRule type="dataBar" priority="523">
       <dataBar>
         <cfvo type="num" val="-100%"/>
         <cfvo type="num" val="100%"/>
@@ -12614,7 +9230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I14">
-    <cfRule type="dataBar" priority="253">
+    <cfRule type="dataBar" priority="277">
       <dataBar>
         <cfvo type="num" val="-100%"/>
         <cfvo type="num" val="100%"/>
@@ -12628,31 +9244,119 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="173" priority="5">
+    <cfRule type="expression" dxfId="197" priority="29">
       <formula>F5&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="6">
+    <cfRule type="expression" dxfId="196" priority="30">
       <formula>AND(-3&lt;F5,F5&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="7">
+    <cfRule type="expression" dxfId="195" priority="31">
       <formula>AND(-2&lt;F5,F5&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="8">
+    <cfRule type="expression" dxfId="194" priority="32">
       <formula>AND(-1.5&lt;F5,F5&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="193" priority="25">
       <formula>F3&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="2">
+    <cfRule type="expression" dxfId="192" priority="26">
       <formula>AND(-3&lt;F3,F3&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="3">
+    <cfRule type="expression" dxfId="191" priority="27">
       <formula>AND(-2&lt;F3,F3&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="4">
+    <cfRule type="expression" dxfId="190" priority="28">
       <formula>AND(-1.5&lt;F3,F3&lt;-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G30">
+    <cfRule type="expression" dxfId="189" priority="19">
+      <formula>I19&lt;=-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="20">
+      <formula>AND(-20%&gt;I19,I19&gt;-50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="21">
+      <formula>AND(0%&gt;I19,I19&gt;=-20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G30">
+    <cfRule type="expression" dxfId="186" priority="22">
+      <formula>I19&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="23">
+      <formula>AND(-20&gt;I19,I19&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="24">
+      <formula>AND(0&gt;I19,I19&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H30">
+    <cfRule type="expression" dxfId="183" priority="13">
+      <formula>I19&gt;=50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="14">
+      <formula>AND(20%&lt;I19,I19&lt;50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="15">
+      <formula>AND(0%&lt;I19,I19&lt;=20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H30">
+    <cfRule type="expression" dxfId="180" priority="16">
+      <formula>I19&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="17">
+      <formula>AND(20&lt;I19,I19&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="18">
+      <formula>AND(0&lt;I19,I19&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G14">
+    <cfRule type="expression" dxfId="177" priority="7">
+      <formula>I3&lt;=-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="8">
+      <formula>AND(-20%&gt;I3,I3&gt;-50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="9">
+      <formula>AND(0%&gt;I3,I3&gt;=-20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G14">
+    <cfRule type="expression" dxfId="174" priority="10">
+      <formula>I3&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="11">
+      <formula>AND(-20&gt;I3,I3&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="12">
+      <formula>AND(0&gt;I3,I3&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="expression" dxfId="171" priority="1">
+      <formula>I3&gt;=50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="2">
+      <formula>AND(20%&lt;I3,I3&lt;50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="3">
+      <formula>AND(0%&lt;I3,I3&lt;=20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="expression" dxfId="168" priority="4">
+      <formula>I3&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="5">
+      <formula>AND(20&lt;I3,I3&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="6">
+      <formula>AND(0&lt;I3,I3&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12774,10 +9478,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
@@ -12975,10 +9679,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
